--- a/Result/check1/2025-03-20.xlsx
+++ b/Result/check1/2025-03-20.xlsx
@@ -10593,7 +10593,7 @@
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="AV44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="AV46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
